--- a/biology/Botanique/Braeburn/Braeburn.xlsx
+++ b/biology/Botanique/Braeburn/Braeburn.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Braeburn est le nom d'un cultivar de pommier domestique.
 </t>
@@ -511,7 +523,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette variété de pomme très répandue est née en 1950 d'un semis chanceux (peut-être d'un pépin de Lady Hamil) sur la colline de Braeburn située à 100 km à l'ouest de Wellington en Nouvelle-Zélande.
 </t>
@@ -542,7 +556,9 @@
           <t>Commercialisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En Nouvelle-Zélande, la Braeburn représente aujourd'hui 40 % de la production nationale de pommes.
 Avec environ 10 % de parts de marché, c'est la quatrième pomme la plus vendue en France après la Golden Delicious, la pomme Gala et la Granny Smith.
@@ -575,7 +591,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">De taille moyenne, la Braeburn est une pomme à croquer juteuse qui peut aussi se cuire. Croquante sans être trop dure, sa fine peau est verte à rayures rouges mais ses couleurs peuvent varier selon de nombreux facteurs.
 La Braeburn a une saveur acidulée due à ses origines. En effet, elle serait le croisement d'une « Granny Smith » (acide) et d'une « Lady Hamilton » (plus sucrée).
@@ -608,9 +626,11 @@
           <t>Pollinisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Autofertile[1]
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Autofertile
 Pollinisée aussi par : Berlepsch, Cox's Orange Pippin, Reine des reinettes, etc.
 Groupe de floraison : E
 Date de floraison : 6 jours après la Golden Delicious
@@ -644,9 +664,11 @@
           <t>Sensibilité aux maladies</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tavelure : élevée[2]
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tavelure : élevée
 Mildiou : élevée
 Rouille : élevée
 Feu bactérien : élevée
@@ -679,7 +701,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">De vigueur moyenne, le pommier Braeburn apprécie les climats chauds comme celui de la Nouvelle-Zélande dont il est originaire, mais il pousse aussi bien au Chili que dans le sud de la France.
 Comme la Granny Smith dont elle est issue, la Braeburn a besoin d'une longue période (175 jours) pour arriver à maturité. En France, elle est mûre à la fin octobre.
@@ -713,7 +737,9 @@
           <t>Variantes</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Une variante de la Braeburn tendant plus vers le rouge a été nommée « Joburn ». Elle est vendue soit sous ce nom soit sous le nom de marque déposée « Aurora ».
 Un croisement de la Braeburn avec la Royal Gala a donné récemment une nouvelle variété : la pomme Jazz.</t>
